--- a/Basiswerte.xlsx
+++ b/Basiswerte.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1226">
   <si>
     <t xml:space="preserve">Basiswert</t>
   </si>
@@ -958,18 +958,15 @@
     <t xml:space="preserve">PIMCO</t>
   </si>
   <si>
-    <t xml:space="preserve">pimco_edit.xlsx</t>
+    <t xml:space="preserve">PIMCO_Index_HistoricalData_03-06-2019.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pimcoindex.com/Pages/indexdata.aspx?ticker=EMAD&amp;parent=XXXX#</t>
   </si>
   <si>
     <t xml:space="preserve">PSI 20 Index</t>
   </si>
   <si>
-    <t xml:space="preserve">DL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSI 20 Historische Daten.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Russell 2000</t>
   </si>
   <si>
@@ -3364,16 +3361,7 @@
     <t xml:space="preserve">SGIXROBO Index</t>
   </si>
   <si>
-    <t xml:space="preserve">DL_xl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGIXROBO Index.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">SGSB35U Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levels_SGSB35U_20190207.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Shiller Barclays CAPE Europe Sector Value Net TR</t>
@@ -3979,10 +3967,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1012"/>
+  <dimension ref="A1:S1012"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N171" activeCellId="0" sqref="N171"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A910" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A950" activeCellId="0" sqref="A950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8187,7 +8175,7 @@
       </c>
       <c r="L191" s="0"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
         <v>310</v>
       </c>
@@ -8211,10 +8199,13 @@
       <c r="N192" s="0" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="8" t="s">
+      <c r="S192" s="0" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>2</v>
@@ -8225,21 +8216,12 @@
       <c r="D193" s="2" t="n">
         <v>0.004226</v>
       </c>
-      <c r="G193" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J193" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K193" s="0"/>
       <c r="L193" s="0"/>
-      <c r="N193" s="0" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>2</v>
@@ -8251,7 +8233,7 @@
         <v>0.0011815</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>29</v>
@@ -8263,13 +8245,13 @@
         <v>30</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J194" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L194" s="0"/>
       <c r="M194" s="0" t="n">
@@ -8278,7 +8260,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>2</v>
@@ -8296,13 +8278,13 @@
         <v>15</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>2</v>
@@ -8320,7 +8302,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>2</v>
@@ -8338,13 +8320,13 @@
         <v>15</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>2</v>
@@ -8374,7 +8356,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>2</v>
@@ -8392,10 +8374,10 @@
         <v>15</v>
       </c>
       <c r="K199" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L199" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="L199" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="M199" s="0" t="n">
         <v>1</v>
@@ -8403,7 +8385,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>2</v>
@@ -8421,7 +8403,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>2</v>
@@ -8439,7 +8421,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>2</v>
@@ -8457,7 +8439,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>2</v>
@@ -8475,7 +8457,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>2</v>
@@ -8493,7 +8475,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2</v>
@@ -8511,7 +8493,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2</v>
@@ -8529,7 +8511,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>2</v>
@@ -8547,7 +8529,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>2</v>
@@ -8565,7 +8547,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>2</v>
@@ -8583,7 +8565,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>2</v>
@@ -8595,21 +8577,21 @@
         <v>0.00228</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J210" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K210" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L210" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="L210" s="0" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>2</v>
@@ -8627,7 +8609,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>2</v>
@@ -8645,7 +8627,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>2</v>
@@ -8663,7 +8645,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>2</v>
@@ -8681,7 +8663,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>2</v>
@@ -8699,7 +8681,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>2</v>
@@ -8717,7 +8699,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>2</v>
@@ -8735,7 +8717,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>2</v>
@@ -8753,7 +8735,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>2</v>
@@ -8771,7 +8753,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>2</v>
@@ -8789,7 +8771,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>2</v>
@@ -8807,7 +8789,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>2</v>
@@ -8825,7 +8807,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>2</v>
@@ -8843,7 +8825,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>2</v>
@@ -8861,7 +8843,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>2</v>
@@ -8879,7 +8861,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>2</v>
@@ -8897,7 +8879,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>2</v>
@@ -8915,7 +8897,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>1</v>
@@ -8933,7 +8915,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>1</v>
@@ -8951,7 +8933,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>1</v>
@@ -8969,7 +8951,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>1</v>
@@ -8987,7 +8969,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>1</v>
@@ -9005,7 +8987,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>1</v>
@@ -9023,7 +9005,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>1</v>
@@ -9041,13 +9023,13 @@
         <v>20</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>1</v>
@@ -9065,7 +9047,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>1</v>
@@ -9083,7 +9065,7 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>1</v>
@@ -9101,7 +9083,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>1</v>
@@ -9119,7 +9101,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>1</v>
@@ -9137,7 +9119,7 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>1</v>
@@ -9155,7 +9137,7 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>1</v>
@@ -9173,7 +9155,7 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>1</v>
@@ -9191,7 +9173,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>1</v>
@@ -9209,7 +9191,7 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>1</v>
@@ -9227,7 +9209,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>1</v>
@@ -9245,7 +9227,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>1</v>
@@ -9263,7 +9245,7 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>1</v>
@@ -9281,7 +9263,7 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>1</v>
@@ -9299,7 +9281,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>1</v>
@@ -9317,7 +9299,7 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>1</v>
@@ -9335,7 +9317,7 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>1</v>
@@ -9353,7 +9335,7 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>1</v>
@@ -9371,7 +9353,7 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>1</v>
@@ -9389,7 +9371,7 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>1</v>
@@ -9407,7 +9389,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>1</v>
@@ -9425,7 +9407,7 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>1</v>
@@ -9443,7 +9425,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>1</v>
@@ -9461,7 +9443,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>1</v>
@@ -9479,7 +9461,7 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>1</v>
@@ -9497,7 +9479,7 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>1</v>
@@ -9515,7 +9497,7 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>1</v>
@@ -9533,7 +9515,7 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>1</v>
@@ -9551,7 +9533,7 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>1</v>
@@ -9569,7 +9551,7 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>1</v>
@@ -9587,7 +9569,7 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>1</v>
@@ -9605,7 +9587,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>1</v>
@@ -9623,7 +9605,7 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>1</v>
@@ -9641,7 +9623,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>1</v>
@@ -9659,7 +9641,7 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>1</v>
@@ -9677,7 +9659,7 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>1</v>
@@ -9695,7 +9677,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>1</v>
@@ -9713,7 +9695,7 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>1</v>
@@ -9731,7 +9713,7 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>1</v>
@@ -9749,7 +9731,7 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>1</v>
@@ -9767,7 +9749,7 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>1</v>
@@ -9785,7 +9767,7 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>1</v>
@@ -9803,7 +9785,7 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>1</v>
@@ -9821,7 +9803,7 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>1</v>
@@ -9839,7 +9821,7 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>1</v>
@@ -9857,7 +9839,7 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>1</v>
@@ -9875,7 +9857,7 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>1</v>
@@ -9893,7 +9875,7 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>1</v>
@@ -9911,7 +9893,7 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>1</v>
@@ -9929,7 +9911,7 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>1</v>
@@ -9947,7 +9929,7 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>1</v>
@@ -9965,7 +9947,7 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>1</v>
@@ -9983,7 +9965,7 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>1</v>
@@ -10001,7 +9983,7 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>1</v>
@@ -10019,7 +10001,7 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>1</v>
@@ -10037,7 +10019,7 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>1</v>
@@ -10055,7 +10037,7 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>1</v>
@@ -10073,7 +10055,7 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>1</v>
@@ -10091,7 +10073,7 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>1</v>
@@ -10109,7 +10091,7 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>1</v>
@@ -10127,7 +10109,7 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>1</v>
@@ -10145,7 +10127,7 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>1</v>
@@ -10163,7 +10145,7 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>1</v>
@@ -10181,7 +10163,7 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>1</v>
@@ -10199,7 +10181,7 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>1</v>
@@ -10217,7 +10199,7 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>1</v>
@@ -10235,7 +10217,7 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>1</v>
@@ -10253,7 +10235,7 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>1</v>
@@ -10271,7 +10253,7 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>1</v>
@@ -10289,7 +10271,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>1</v>
@@ -10307,7 +10289,7 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>1</v>
@@ -10325,7 +10307,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>1</v>
@@ -10343,7 +10325,7 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>1</v>
@@ -10361,7 +10343,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>1</v>
@@ -10379,7 +10361,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>1</v>
@@ -10397,7 +10379,7 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>1</v>
@@ -10415,7 +10397,7 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>1</v>
@@ -10433,7 +10415,7 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>1</v>
@@ -10451,7 +10433,7 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>1</v>
@@ -10469,7 +10451,7 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>1</v>
@@ -10487,7 +10469,7 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>1</v>
@@ -10505,7 +10487,7 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>1</v>
@@ -10523,7 +10505,7 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>1</v>
@@ -10541,7 +10523,7 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>1</v>
@@ -10559,7 +10541,7 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>1</v>
@@ -10577,7 +10559,7 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>1</v>
@@ -10595,7 +10577,7 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>1</v>
@@ -10613,7 +10595,7 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>1</v>
@@ -10631,7 +10613,7 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>1</v>
@@ -10649,7 +10631,7 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>1</v>
@@ -10667,7 +10649,7 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1</v>
@@ -10685,7 +10667,7 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>1</v>
@@ -10703,7 +10685,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>1</v>
@@ -10721,7 +10703,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>1</v>
@@ -10739,7 +10721,7 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>1</v>
@@ -10757,7 +10739,7 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>1</v>
@@ -10775,7 +10757,7 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>1</v>
@@ -10793,7 +10775,7 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>1</v>
@@ -10811,7 +10793,7 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>1</v>
@@ -10829,7 +10811,7 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>1</v>
@@ -10847,7 +10829,7 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>1</v>
@@ -10865,7 +10847,7 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>1</v>
@@ -10883,7 +10865,7 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>1</v>
@@ -10901,7 +10883,7 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>1</v>
@@ -10919,7 +10901,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>1</v>
@@ -10937,7 +10919,7 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>1</v>
@@ -10955,7 +10937,7 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>1</v>
@@ -10973,7 +10955,7 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1</v>
@@ -10991,7 +10973,7 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>1</v>
@@ -11009,7 +10991,7 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>1</v>
@@ -11027,7 +11009,7 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>1</v>
@@ -11045,7 +11027,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>1</v>
@@ -11063,7 +11045,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>1</v>
@@ -11081,7 +11063,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>1</v>
@@ -11099,7 +11081,7 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>1</v>
@@ -11117,7 +11099,7 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>1</v>
@@ -11135,7 +11117,7 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1</v>
@@ -11153,7 +11135,7 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>1</v>
@@ -11171,7 +11153,7 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>1</v>
@@ -11189,7 +11171,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>1</v>
@@ -11207,7 +11189,7 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>1</v>
@@ -11225,7 +11207,7 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>1</v>
@@ -11243,7 +11225,7 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>1</v>
@@ -11261,7 +11243,7 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>1</v>
@@ -11279,7 +11261,7 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>1</v>
@@ -11297,7 +11279,7 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>1</v>
@@ -11315,7 +11297,7 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>1</v>
@@ -11333,7 +11315,7 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>1</v>
@@ -11351,7 +11333,7 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>1</v>
@@ -11369,7 +11351,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>1</v>
@@ -11387,7 +11369,7 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>1</v>
@@ -11405,7 +11387,7 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>1</v>
@@ -11423,7 +11405,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>1</v>
@@ -11441,7 +11423,7 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>1</v>
@@ -11459,7 +11441,7 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>1</v>
@@ -11477,7 +11459,7 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>1</v>
@@ -11495,7 +11477,7 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>1</v>
@@ -11513,7 +11495,7 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>1</v>
@@ -11531,7 +11513,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>1</v>
@@ -11549,7 +11531,7 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>1</v>
@@ -11561,25 +11543,25 @@
         <v>0.00347</v>
       </c>
       <c r="E374" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F374" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="F374" s="0" t="s">
+      <c r="G374" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G374" s="3" t="s">
+      <c r="H374" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="H374" s="0" t="s">
+      <c r="I374" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="I374" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="J374" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K374" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L374" s="0"/>
       <c r="M374" s="0" t="n">
@@ -11588,7 +11570,7 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>1</v>
@@ -11606,7 +11588,7 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>1</v>
@@ -11624,7 +11606,7 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>1</v>
@@ -11642,7 +11624,7 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>1</v>
@@ -11660,7 +11642,7 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>1</v>
@@ -11678,7 +11660,7 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>1</v>
@@ -11696,7 +11678,7 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>1</v>
@@ -11714,7 +11696,7 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>1</v>
@@ -11732,7 +11714,7 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>1</v>
@@ -11750,7 +11732,7 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>1</v>
@@ -11768,7 +11750,7 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>1</v>
@@ -11786,7 +11768,7 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>1</v>
@@ -11804,7 +11786,7 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>1</v>
@@ -11822,7 +11804,7 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>1</v>
@@ -11840,7 +11822,7 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>1</v>
@@ -11858,7 +11840,7 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>1</v>
@@ -11876,7 +11858,7 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>1</v>
@@ -11894,7 +11876,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>1</v>
@@ -11912,7 +11894,7 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>1</v>
@@ -11924,28 +11906,28 @@
         <v>0.001776</v>
       </c>
       <c r="E393" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F393" s="0" t="s">
         <v>531</v>
-      </c>
-      <c r="F393" s="0" t="s">
-        <v>532</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H393" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I393" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J393" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K393" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="L393" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="L393" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="M393" s="0" t="n">
         <v>1</v>
@@ -11953,7 +11935,7 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>1</v>
@@ -11971,7 +11953,7 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>1</v>
@@ -11989,7 +11971,7 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>1</v>
@@ -12007,7 +11989,7 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>1</v>
@@ -12025,7 +12007,7 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>1</v>
@@ -12043,7 +12025,7 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>1</v>
@@ -12061,7 +12043,7 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>1</v>
@@ -12079,7 +12061,7 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>1</v>
@@ -12097,7 +12079,7 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>1</v>
@@ -12115,7 +12097,7 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>1</v>
@@ -12133,7 +12115,7 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>1</v>
@@ -12151,7 +12133,7 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>1</v>
@@ -12169,7 +12151,7 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B406" s="0" t="n">
         <v>1</v>
@@ -12187,7 +12169,7 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B407" s="0" t="n">
         <v>1</v>
@@ -12205,7 +12187,7 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B408" s="0" t="n">
         <v>1</v>
@@ -12223,7 +12205,7 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B409" s="0" t="n">
         <v>1</v>
@@ -12241,7 +12223,7 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B410" s="0" t="n">
         <v>1</v>
@@ -12259,7 +12241,7 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>1</v>
@@ -12277,7 +12259,7 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>1</v>
@@ -12295,7 +12277,7 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>1</v>
@@ -12313,7 +12295,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>1</v>
@@ -12331,7 +12313,7 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>1</v>
@@ -12349,7 +12331,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>1</v>
@@ -12367,7 +12349,7 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>1</v>
@@ -12385,7 +12367,7 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>1</v>
@@ -12403,7 +12385,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>1</v>
@@ -12421,7 +12403,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>1</v>
@@ -12439,7 +12421,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>1</v>
@@ -12457,7 +12439,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B422" s="0" t="n">
         <v>1</v>
@@ -12481,7 +12463,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>1</v>
@@ -12505,7 +12487,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>1</v>
@@ -12529,7 +12511,7 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>1</v>
@@ -12547,7 +12529,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>1</v>
@@ -12565,7 +12547,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>1</v>
@@ -12577,21 +12559,21 @@
         <v>0.000736</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J427" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K427" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="L427" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="L427" s="13" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>1</v>
@@ -12603,19 +12585,19 @@
         <v>0.003599</v>
       </c>
       <c r="E428" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H428" s="0" t="s">
         <v>574</v>
-      </c>
-      <c r="G428" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H428" s="0" t="s">
-        <v>575</v>
       </c>
       <c r="J428" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K428" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L428" s="0"/>
       <c r="M428" s="0" t="n">
@@ -12624,7 +12606,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>1</v>
@@ -12642,7 +12624,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>1</v>
@@ -12654,19 +12636,19 @@
         <v>0.003001</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J430" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K430" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L430" s="0"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>1</v>
@@ -12684,7 +12666,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>1</v>
@@ -12702,7 +12684,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>1</v>
@@ -12720,7 +12702,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>1</v>
@@ -12732,19 +12714,19 @@
         <v>0.002165</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J434" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K434" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L434" s="0"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>1</v>
@@ -12762,7 +12744,7 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B436" s="0" t="n">
         <v>1</v>
@@ -12780,7 +12762,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B437" s="0" t="n">
         <v>1</v>
@@ -12798,7 +12780,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B438" s="0" t="n">
         <v>1</v>
@@ -12816,7 +12798,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B439" s="0" t="n">
         <v>1</v>
@@ -12834,7 +12816,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>1</v>
@@ -12852,7 +12834,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>1</v>
@@ -12870,7 +12852,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>1</v>
@@ -12888,7 +12870,7 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>1</v>
@@ -12906,7 +12888,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>1</v>
@@ -12924,7 +12906,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>1</v>
@@ -12936,19 +12918,19 @@
         <v>0.001577</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J445" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K445" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L445" s="0"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>1</v>
@@ -12960,19 +12942,19 @@
         <v>0.004654</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J446" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="K446" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="K446" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="L446" s="0"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>1</v>
@@ -12990,7 +12972,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>1</v>
@@ -13008,7 +12990,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>1</v>
@@ -13026,7 +13008,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>1</v>
@@ -13038,19 +13020,19 @@
         <v>0.003732</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J450" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K450" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L450" s="0"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B451" s="0" t="n">
         <v>1</v>
@@ -13068,7 +13050,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B452" s="0" t="n">
         <v>1</v>
@@ -13086,7 +13068,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B453" s="0" t="n">
         <v>1</v>
@@ -13098,19 +13080,19 @@
         <v>0.001769</v>
       </c>
       <c r="E453" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H453" s="0" t="s">
         <v>608</v>
-      </c>
-      <c r="G453" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H453" s="0" t="s">
-        <v>609</v>
       </c>
       <c r="J453" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K453" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L453" s="0"/>
       <c r="M453" s="0" t="n">
@@ -13119,7 +13101,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B454" s="0" t="n">
         <v>1</v>
@@ -13131,19 +13113,19 @@
         <v>0.001859</v>
       </c>
       <c r="E454" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H454" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="G454" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H454" s="0" t="s">
-        <v>613</v>
       </c>
       <c r="J454" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K454" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L454" s="0"/>
       <c r="M454" s="0" t="n">
@@ -13152,7 +13134,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B455" s="0" t="n">
         <v>1</v>
@@ -13164,19 +13146,19 @@
         <v>0.001737</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J455" s="3" t="s">
         <v>55</v>
       </c>
       <c r="K455" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L455" s="0"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>1</v>
@@ -13188,19 +13170,19 @@
         <v>0.007378</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J456" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K456" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L456" s="0"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>1</v>
@@ -13218,7 +13200,7 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>1</v>
@@ -13230,19 +13212,19 @@
         <v>0.001536</v>
       </c>
       <c r="E458" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H458" s="0" t="s">
         <v>620</v>
-      </c>
-      <c r="G458" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H458" s="0" t="s">
-        <v>621</v>
       </c>
       <c r="J458" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K458" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L458" s="0"/>
       <c r="M458" s="0" t="n">
@@ -13251,7 +13233,7 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>1</v>
@@ -13263,19 +13245,19 @@
         <v>0.001459</v>
       </c>
       <c r="E459" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H459" s="0" t="s">
         <v>624</v>
-      </c>
-      <c r="G459" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H459" s="0" t="s">
-        <v>625</v>
       </c>
       <c r="J459" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K459" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L459" s="0"/>
       <c r="M459" s="0" t="n">
@@ -13284,7 +13266,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>1</v>
@@ -13305,12 +13287,12 @@
         <v>10003391</v>
       </c>
       <c r="L460" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>1</v>
@@ -13328,7 +13310,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>1</v>
@@ -13346,7 +13328,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>1</v>
@@ -13364,7 +13346,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>1</v>
@@ -13382,7 +13364,7 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>1</v>
@@ -13406,7 +13388,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B466" s="0" t="n">
         <v>1</v>
@@ -13424,7 +13406,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>1</v>
@@ -13439,16 +13421,16 @@
         <v>19</v>
       </c>
       <c r="J467" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="K467" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="K467" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="L467" s="0"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B468" s="0" t="n">
         <v>1</v>
@@ -13466,7 +13448,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B469" s="0" t="n">
         <v>1</v>
@@ -13484,7 +13466,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B470" s="0" t="n">
         <v>1</v>
@@ -13502,7 +13484,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>1</v>
@@ -13520,7 +13502,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>1</v>
@@ -13538,7 +13520,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>1</v>
@@ -13556,7 +13538,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>1</v>
@@ -13574,7 +13556,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>1</v>
@@ -13592,7 +13574,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B476" s="0" t="n">
         <v>1</v>
@@ -13610,7 +13592,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>1</v>
@@ -13628,7 +13610,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>1</v>
@@ -13646,7 +13628,7 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>1</v>
@@ -13664,7 +13646,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>1</v>
@@ -13682,7 +13664,7 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B481" s="0" t="n">
         <v>1</v>
@@ -13700,7 +13682,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B482" s="0" t="n">
         <v>1</v>
@@ -13718,7 +13700,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B483" s="0" t="n">
         <v>1</v>
@@ -13736,7 +13718,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B484" s="0" t="n">
         <v>1</v>
@@ -13754,7 +13736,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B485" s="0" t="n">
         <v>1</v>
@@ -13772,13 +13754,13 @@
         <v>15</v>
       </c>
       <c r="K485" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L485" s="0"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>1</v>
@@ -13796,13 +13778,13 @@
         <v>15</v>
       </c>
       <c r="K486" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L486" s="0"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>1</v>
@@ -13820,7 +13802,7 @@
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>1</v>
@@ -13838,7 +13820,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B489" s="0" t="n">
         <v>1</v>
@@ -13856,7 +13838,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>1</v>
@@ -13874,7 +13856,7 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>1</v>
@@ -13892,7 +13874,7 @@
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>1</v>
@@ -13910,7 +13892,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>1</v>
@@ -13928,7 +13910,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>1</v>
@@ -13946,7 +13928,7 @@
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>1</v>
@@ -13964,7 +13946,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B496" s="0" t="n">
         <v>1</v>
@@ -13982,7 +13964,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B497" s="0" t="n">
         <v>1</v>
@@ -14000,7 +13982,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B498" s="0" t="n">
         <v>1</v>
@@ -14018,7 +14000,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>1</v>
@@ -14036,7 +14018,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>1</v>
@@ -14054,7 +14036,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B501" s="0" t="n">
         <v>1</v>
@@ -14072,7 +14054,7 @@
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B502" s="0" t="n">
         <v>1</v>
@@ -14090,7 +14072,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>1</v>
@@ -14108,7 +14090,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>1</v>
@@ -14126,7 +14108,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>1</v>
@@ -14144,7 +14126,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>1</v>
@@ -14162,7 +14144,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B507" s="0" t="n">
         <v>1</v>
@@ -14180,7 +14162,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>1</v>
@@ -14198,7 +14180,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>1</v>
@@ -14216,7 +14198,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B510" s="0" t="n">
         <v>1</v>
@@ -14234,7 +14216,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B511" s="0" t="n">
         <v>1</v>
@@ -14252,7 +14234,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B512" s="0" t="n">
         <v>1</v>
@@ -14270,7 +14252,7 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B513" s="0" t="n">
         <v>1</v>
@@ -14288,7 +14270,7 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B514" s="0" t="n">
         <v>1</v>
@@ -14306,7 +14288,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B515" s="0" t="n">
         <v>1</v>
@@ -14324,7 +14306,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>1</v>
@@ -14342,7 +14324,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B517" s="0" t="n">
         <v>1</v>
@@ -14360,7 +14342,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B518" s="0" t="n">
         <v>1</v>
@@ -14378,7 +14360,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>1</v>
@@ -14396,7 +14378,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>1</v>
@@ -14414,7 +14396,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>1</v>
@@ -14432,7 +14414,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>1</v>
@@ -14450,7 +14432,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>1</v>
@@ -14468,7 +14450,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>1</v>
@@ -14486,7 +14468,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>1</v>
@@ -14504,7 +14486,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B526" s="0" t="n">
         <v>1</v>
@@ -14522,7 +14504,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B527" s="0" t="n">
         <v>1</v>
@@ -14540,7 +14522,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B528" s="0" t="n">
         <v>1</v>
@@ -14558,7 +14540,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B529" s="0" t="n">
         <v>1</v>
@@ -14576,7 +14558,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>1</v>
@@ -14594,7 +14576,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>1</v>
@@ -14612,7 +14594,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>1</v>
@@ -14630,7 +14612,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>1</v>
@@ -14648,7 +14630,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>1</v>
@@ -14666,7 +14648,7 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>1</v>
@@ -14684,7 +14666,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>1</v>
@@ -14702,7 +14684,7 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>1</v>
@@ -14720,7 +14702,7 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>1</v>
@@ -14738,7 +14720,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>1</v>
@@ -14756,7 +14738,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>1</v>
@@ -14774,7 +14756,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>1</v>
@@ -14792,7 +14774,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>1</v>
@@ -14810,7 +14792,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>1</v>
@@ -14828,7 +14810,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>1</v>
@@ -14846,7 +14828,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>1</v>
@@ -14864,7 +14846,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>1</v>
@@ -14882,7 +14864,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>1</v>
@@ -14900,7 +14882,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>1</v>
@@ -14918,7 +14900,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>1</v>
@@ -14936,7 +14918,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>1</v>
@@ -14954,7 +14936,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>1</v>
@@ -14972,7 +14954,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>1</v>
@@ -14990,7 +14972,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>1</v>
@@ -15008,7 +14990,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>1</v>
@@ -15026,7 +15008,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>1</v>
@@ -15044,7 +15026,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B556" s="0" t="n">
         <v>1</v>
@@ -15062,7 +15044,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B557" s="0" t="n">
         <v>1</v>
@@ -15080,7 +15062,7 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B558" s="0" t="n">
         <v>1</v>
@@ -15098,7 +15080,7 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B559" s="0" t="n">
         <v>1</v>
@@ -15116,7 +15098,7 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>1</v>
@@ -15134,7 +15116,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B561" s="0" t="n">
         <v>1</v>
@@ -15152,7 +15134,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>1</v>
@@ -15170,7 +15152,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>1</v>
@@ -15188,7 +15170,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B564" s="0" t="n">
         <v>1</v>
@@ -15206,7 +15188,7 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>1</v>
@@ -15224,7 +15206,7 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>1</v>
@@ -15242,7 +15224,7 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>1</v>
@@ -15260,7 +15242,7 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>1</v>
@@ -15278,7 +15260,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>1</v>
@@ -15296,7 +15278,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>1</v>
@@ -15314,7 +15296,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B571" s="0" t="n">
         <v>1</v>
@@ -15332,7 +15314,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B572" s="0" t="n">
         <v>1</v>
@@ -15350,7 +15332,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B573" s="0" t="n">
         <v>1</v>
@@ -15368,13 +15350,13 @@
         <v>30</v>
       </c>
       <c r="I573" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J573" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K573" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L573" s="0"/>
       <c r="M573" s="0" t="n">
@@ -15383,7 +15365,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B574" s="0" t="n">
         <v>1</v>
@@ -15401,19 +15383,19 @@
         <v>30</v>
       </c>
       <c r="I574" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J574" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K574" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L574" s="0"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B575" s="0" t="n">
         <v>1</v>
@@ -15431,7 +15413,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>1</v>
@@ -15449,7 +15431,7 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>1</v>
@@ -15467,7 +15449,7 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>1</v>
@@ -15485,7 +15467,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>1</v>
@@ -15503,7 +15485,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B580" s="0" t="n">
         <v>1</v>
@@ -15521,7 +15503,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B581" s="0" t="n">
         <v>1</v>
@@ -15539,7 +15521,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B582" s="0" t="n">
         <v>1</v>
@@ -15560,7 +15542,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B583" s="0" t="n">
         <v>1</v>
@@ -15578,7 +15560,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B584" s="0" t="n">
         <v>1</v>
@@ -15596,7 +15578,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B585" s="0" t="n">
         <v>1</v>
@@ -15614,7 +15596,7 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B586" s="0" t="n">
         <v>1</v>
@@ -15632,7 +15614,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B587" s="0" t="n">
         <v>1</v>
@@ -15650,7 +15632,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B588" s="0" t="n">
         <v>1</v>
@@ -15668,7 +15650,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B589" s="0" t="n">
         <v>1</v>
@@ -15686,7 +15668,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B590" s="0" t="n">
         <v>1</v>
@@ -15704,7 +15686,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B591" s="0" t="n">
         <v>1</v>
@@ -15722,7 +15704,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B592" s="0" t="n">
         <v>1</v>
@@ -15740,7 +15722,7 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B593" s="0" t="n">
         <v>1</v>
@@ -15758,7 +15740,7 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B594" s="0" t="n">
         <v>1</v>
@@ -15776,7 +15758,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B595" s="0" t="n">
         <v>1</v>
@@ -15794,7 +15776,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B596" s="0" t="n">
         <v>1</v>
@@ -15812,7 +15794,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B597" s="0" t="n">
         <v>1</v>
@@ -15830,7 +15812,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B598" s="0" t="n">
         <v>1</v>
@@ -15848,7 +15830,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B599" s="0" t="n">
         <v>1</v>
@@ -15866,7 +15848,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>1</v>
@@ -15884,7 +15866,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B601" s="0" t="n">
         <v>1</v>
@@ -15902,7 +15884,7 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B602" s="0" t="n">
         <v>1</v>
@@ -15920,7 +15902,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B603" s="0" t="n">
         <v>1</v>
@@ -15938,7 +15920,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B604" s="0" t="n">
         <v>1</v>
@@ -15956,7 +15938,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B605" s="0" t="n">
         <v>1</v>
@@ -15974,7 +15956,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B606" s="0" t="n">
         <v>1</v>
@@ -15992,7 +15974,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>1</v>
@@ -16010,7 +15992,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>1</v>
@@ -16028,7 +16010,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>1</v>
@@ -16046,7 +16028,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>1</v>
@@ -16064,7 +16046,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>1</v>
@@ -16082,7 +16064,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>1</v>
@@ -16100,7 +16082,7 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>1</v>
@@ -16118,7 +16100,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>1</v>
@@ -16136,7 +16118,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>1</v>
@@ -16154,7 +16136,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B616" s="0" t="n">
         <v>1</v>
@@ -16172,7 +16154,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B617" s="0" t="n">
         <v>1</v>
@@ -16190,7 +16172,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B618" s="0" t="n">
         <v>1</v>
@@ -16208,7 +16190,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B619" s="0" t="n">
         <v>1</v>
@@ -16226,7 +16208,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B620" s="0" t="n">
         <v>1</v>
@@ -16247,7 +16229,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>1</v>
@@ -16265,7 +16247,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>1</v>
@@ -16283,7 +16265,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>1</v>
@@ -16301,7 +16283,7 @@
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>1</v>
@@ -16319,7 +16301,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>1</v>
@@ -16337,7 +16319,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>1</v>
@@ -16355,7 +16337,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>1</v>
@@ -16373,7 +16355,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>1</v>
@@ -16391,7 +16373,7 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B629" s="0" t="n">
         <v>1</v>
@@ -16412,7 +16394,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>1</v>
@@ -16430,7 +16412,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B631" s="0" t="n">
         <v>1</v>
@@ -16448,7 +16430,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B632" s="0" t="n">
         <v>1</v>
@@ -16469,7 +16451,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B633" s="0" t="n">
         <v>1</v>
@@ -16490,7 +16472,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B634" s="0" t="n">
         <v>1</v>
@@ -16508,7 +16490,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B635" s="0" t="n">
         <v>1</v>
@@ -16526,7 +16508,7 @@
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>1</v>
@@ -16544,7 +16526,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B637" s="0" t="n">
         <v>1</v>
@@ -16562,7 +16544,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>1</v>
@@ -16580,7 +16562,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>1</v>
@@ -16598,7 +16580,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>1</v>
@@ -16616,7 +16598,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>1</v>
@@ -16634,7 +16616,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>1</v>
@@ -16652,7 +16634,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>1</v>
@@ -16670,7 +16652,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>1</v>
@@ -16688,7 +16670,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>1</v>
@@ -16706,7 +16688,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B646" s="0" t="n">
         <v>1</v>
@@ -16724,7 +16706,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B647" s="0" t="n">
         <v>1</v>
@@ -16742,7 +16724,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B648" s="0" t="n">
         <v>1</v>
@@ -16760,7 +16742,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B649" s="0" t="n">
         <v>1</v>
@@ -16778,7 +16760,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B650" s="0" t="n">
         <v>1</v>
@@ -16796,7 +16778,7 @@
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>1</v>
@@ -16814,7 +16796,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>1</v>
@@ -16832,7 +16814,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B653" s="0" t="n">
         <v>1</v>
@@ -16850,7 +16832,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>1</v>
@@ -16868,7 +16850,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>1</v>
@@ -16886,7 +16868,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>1</v>
@@ -16907,7 +16889,7 @@
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B657" s="0" t="n">
         <v>1</v>
@@ -16925,7 +16907,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>1</v>
@@ -16943,7 +16925,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B659" s="0" t="n">
         <v>1</v>
@@ -16961,7 +16943,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>1</v>
@@ -16979,7 +16961,7 @@
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B661" s="0" t="n">
         <v>1</v>
@@ -16997,7 +16979,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B662" s="0" t="n">
         <v>1</v>
@@ -17015,7 +16997,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B663" s="0" t="n">
         <v>1</v>
@@ -17033,7 +17015,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B664" s="0" t="n">
         <v>1</v>
@@ -17051,7 +17033,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B665" s="0" t="n">
         <v>1</v>
@@ -17069,7 +17051,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B666" s="0" t="n">
         <v>1</v>
@@ -17087,7 +17069,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>1</v>
@@ -17105,7 +17087,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>1</v>
@@ -17123,7 +17105,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>1</v>
@@ -17141,7 +17123,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>1</v>
@@ -17159,7 +17141,7 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>1</v>
@@ -17177,7 +17159,7 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>1</v>
@@ -17195,7 +17177,7 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>1</v>
@@ -17213,7 +17195,7 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>1</v>
@@ -17231,7 +17213,7 @@
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>1</v>
@@ -17249,7 +17231,7 @@
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B676" s="0" t="n">
         <v>1</v>
@@ -17267,7 +17249,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B677" s="0" t="n">
         <v>1</v>
@@ -17285,7 +17267,7 @@
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B678" s="0" t="n">
         <v>1</v>
@@ -17303,7 +17285,7 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B679" s="0" t="n">
         <v>1</v>
@@ -17321,7 +17303,7 @@
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B680" s="0" t="n">
         <v>1</v>
@@ -17342,7 +17324,7 @@
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>1</v>
@@ -17360,7 +17342,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B682" s="0" t="n">
         <v>1</v>
@@ -17378,7 +17360,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B683" s="0" t="n">
         <v>1</v>
@@ -17396,7 +17378,7 @@
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B684" s="0" t="n">
         <v>1</v>
@@ -17414,7 +17396,7 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B685" s="0" t="n">
         <v>1</v>
@@ -17432,7 +17414,7 @@
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>1</v>
@@ -17450,7 +17432,7 @@
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B687" s="0" t="n">
         <v>1</v>
@@ -17468,7 +17450,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B688" s="0" t="n">
         <v>1</v>
@@ -17486,7 +17468,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B689" s="0" t="n">
         <v>1</v>
@@ -17507,7 +17489,7 @@
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B690" s="0" t="n">
         <v>1</v>
@@ -17525,7 +17507,7 @@
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B691" s="0" t="n">
         <v>1</v>
@@ -17543,7 +17525,7 @@
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B692" s="0" t="n">
         <v>1</v>
@@ -17564,7 +17546,7 @@
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="12" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B693" s="0" t="n">
         <v>1</v>
@@ -17582,7 +17564,7 @@
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B694" s="0" t="n">
         <v>1</v>
@@ -17600,7 +17582,7 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B695" s="0" t="n">
         <v>1</v>
@@ -17618,7 +17600,7 @@
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B696" s="0" t="n">
         <v>1</v>
@@ -17636,7 +17618,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B697" s="0" t="n">
         <v>1</v>
@@ -17654,7 +17636,7 @@
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B698" s="0" t="n">
         <v>1</v>
@@ -17672,7 +17654,7 @@
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B699" s="0" t="n">
         <v>1</v>
@@ -17690,7 +17672,7 @@
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B700" s="0" t="n">
         <v>1</v>
@@ -17708,7 +17690,7 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B701" s="0" t="n">
         <v>1</v>
@@ -17726,7 +17708,7 @@
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B702" s="0" t="n">
         <v>1</v>
@@ -17747,7 +17729,7 @@
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B703" s="0" t="n">
         <v>1</v>
@@ -17765,7 +17747,7 @@
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B704" s="0" t="n">
         <v>1</v>
@@ -17783,7 +17765,7 @@
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B705" s="0" t="n">
         <v>1</v>
@@ -17801,7 +17783,7 @@
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B706" s="0" t="n">
         <v>1</v>
@@ -17819,7 +17801,7 @@
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B707" s="0" t="n">
         <v>1</v>
@@ -17837,7 +17819,7 @@
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B708" s="0" t="n">
         <v>1</v>
@@ -17858,7 +17840,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B709" s="0" t="n">
         <v>1</v>
@@ -17876,7 +17858,7 @@
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B710" s="0" t="n">
         <v>1</v>
@@ -17894,7 +17876,7 @@
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B711" s="0" t="n">
         <v>1</v>
@@ -17912,7 +17894,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B712" s="0" t="n">
         <v>1</v>
@@ -17930,7 +17912,7 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B713" s="0" t="n">
         <v>1</v>
@@ -17948,7 +17930,7 @@
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B714" s="0" t="n">
         <v>1</v>
@@ -17966,7 +17948,7 @@
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B715" s="0" t="n">
         <v>1</v>
@@ -17984,7 +17966,7 @@
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B716" s="0" t="n">
         <v>1</v>
@@ -18002,7 +17984,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>1</v>
@@ -18020,7 +18002,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>1</v>
@@ -18038,7 +18020,7 @@
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>1</v>
@@ -18056,7 +18038,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B720" s="0" t="n">
         <v>1</v>
@@ -18074,7 +18056,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B721" s="0" t="n">
         <v>1</v>
@@ -18092,7 +18074,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B722" s="0" t="n">
         <v>1</v>
@@ -18110,7 +18092,7 @@
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B723" s="0" t="n">
         <v>1</v>
@@ -18128,7 +18110,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B724" s="0" t="n">
         <v>1</v>
@@ -18149,7 +18131,7 @@
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B725" s="0" t="n">
         <v>1</v>
@@ -18167,7 +18149,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B726" s="0" t="n">
         <v>1</v>
@@ -18185,7 +18167,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B727" s="0" t="n">
         <v>1</v>
@@ -18203,7 +18185,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B728" s="0" t="n">
         <v>1</v>
@@ -18221,7 +18203,7 @@
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B729" s="0" t="n">
         <v>1</v>
@@ -18239,7 +18221,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B730" s="0" t="n">
         <v>1</v>
@@ -18257,7 +18239,7 @@
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B731" s="0" t="n">
         <v>1</v>
@@ -18275,7 +18257,7 @@
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B732" s="0" t="n">
         <v>1</v>
@@ -18293,7 +18275,7 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B733" s="0" t="n">
         <v>1</v>
@@ -18311,7 +18293,7 @@
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B734" s="0" t="n">
         <v>1</v>
@@ -18329,7 +18311,7 @@
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B735" s="0" t="n">
         <v>1</v>
@@ -18347,7 +18329,7 @@
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B736" s="0" t="n">
         <v>1</v>
@@ -18365,7 +18347,7 @@
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B737" s="0" t="n">
         <v>1</v>
@@ -18383,7 +18365,7 @@
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="12" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B738" s="0" t="n">
         <v>1</v>
@@ -18401,7 +18383,7 @@
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B739" s="0" t="n">
         <v>1</v>
@@ -18419,7 +18401,7 @@
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B740" s="0" t="n">
         <v>1</v>
@@ -18437,7 +18419,7 @@
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B741" s="0" t="n">
         <v>1</v>
@@ -18455,7 +18437,7 @@
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B742" s="0" t="n">
         <v>1</v>
@@ -18473,7 +18455,7 @@
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B743" s="0" t="n">
         <v>1</v>
@@ -18491,7 +18473,7 @@
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B744" s="0" t="n">
         <v>1</v>
@@ -18509,7 +18491,7 @@
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B745" s="0" t="n">
         <v>1</v>
@@ -18527,7 +18509,7 @@
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B746" s="0" t="n">
         <v>1</v>
@@ -18545,7 +18527,7 @@
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B747" s="0" t="n">
         <v>1</v>
@@ -18563,7 +18545,7 @@
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B748" s="0" t="n">
         <v>1</v>
@@ -18581,7 +18563,7 @@
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B749" s="0" t="n">
         <v>1</v>
@@ -18599,7 +18581,7 @@
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B750" s="0" t="n">
         <v>1</v>
@@ -18617,7 +18599,7 @@
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B751" s="0" t="n">
         <v>1</v>
@@ -18635,7 +18617,7 @@
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B752" s="0" t="n">
         <v>1</v>
@@ -18653,7 +18635,7 @@
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B753" s="0" t="n">
         <v>1</v>
@@ -18671,7 +18653,7 @@
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B754" s="0" t="n">
         <v>1</v>
@@ -18689,7 +18671,7 @@
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B755" s="0" t="n">
         <v>1</v>
@@ -18707,7 +18689,7 @@
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B756" s="0" t="n">
         <v>1</v>
@@ -18725,7 +18707,7 @@
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B757" s="0" t="n">
         <v>1</v>
@@ -18743,7 +18725,7 @@
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B758" s="0" t="n">
         <v>1</v>
@@ -18761,7 +18743,7 @@
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B759" s="0" t="n">
         <v>1</v>
@@ -18779,7 +18761,7 @@
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B760" s="0" t="n">
         <v>1</v>
@@ -18797,7 +18779,7 @@
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B761" s="0" t="n">
         <v>1</v>
@@ -18815,7 +18797,7 @@
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B762" s="0" t="n">
         <v>1</v>
@@ -18833,7 +18815,7 @@
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B763" s="0" t="n">
         <v>1</v>
@@ -18851,7 +18833,7 @@
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B764" s="0" t="n">
         <v>1</v>
@@ -18869,7 +18851,7 @@
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B765" s="0" t="n">
         <v>1</v>
@@ -18887,7 +18869,7 @@
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B766" s="0" t="n">
         <v>1</v>
@@ -18905,7 +18887,7 @@
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B767" s="0" t="n">
         <v>1</v>
@@ -18923,7 +18905,7 @@
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B768" s="0" t="n">
         <v>1</v>
@@ -18944,7 +18926,7 @@
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B769" s="0" t="n">
         <v>1</v>
@@ -18962,7 +18944,7 @@
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B770" s="0" t="n">
         <v>1</v>
@@ -18980,7 +18962,7 @@
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B771" s="0" t="n">
         <v>1</v>
@@ -18998,7 +18980,7 @@
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B772" s="0" t="n">
         <v>1</v>
@@ -19016,7 +18998,7 @@
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B773" s="0" t="n">
         <v>1</v>
@@ -19034,7 +19016,7 @@
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B774" s="0" t="n">
         <v>1</v>
@@ -19052,7 +19034,7 @@
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B775" s="0" t="n">
         <v>1</v>
@@ -19070,7 +19052,7 @@
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B776" s="0" t="n">
         <v>1</v>
@@ -19088,7 +19070,7 @@
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B777" s="0" t="n">
         <v>1</v>
@@ -19106,7 +19088,7 @@
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B778" s="0" t="n">
         <v>1</v>
@@ -19124,7 +19106,7 @@
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B779" s="0" t="n">
         <v>1</v>
@@ -19145,7 +19127,7 @@
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B780" s="0" t="n">
         <v>1</v>
@@ -19163,7 +19145,7 @@
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B781" s="0" t="n">
         <v>1</v>
@@ -19181,7 +19163,7 @@
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B782" s="0" t="n">
         <v>1</v>
@@ -19199,7 +19181,7 @@
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B783" s="0" t="n">
         <v>1</v>
@@ -19217,7 +19199,7 @@
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B784" s="0" t="n">
         <v>1</v>
@@ -19235,7 +19217,7 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B785" s="0" t="n">
         <v>1</v>
@@ -19253,7 +19235,7 @@
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B786" s="0" t="n">
         <v>1</v>
@@ -19271,7 +19253,7 @@
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B787" s="0" t="n">
         <v>1</v>
@@ -19289,7 +19271,7 @@
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B788" s="0" t="n">
         <v>1</v>
@@ -19307,7 +19289,7 @@
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B789" s="0" t="n">
         <v>1</v>
@@ -19325,7 +19307,7 @@
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B790" s="0" t="n">
         <v>1</v>
@@ -19343,7 +19325,7 @@
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B791" s="0" t="n">
         <v>1</v>
@@ -19361,7 +19343,7 @@
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B792" s="0" t="n">
         <v>1</v>
@@ -19379,7 +19361,7 @@
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B793" s="0" t="n">
         <v>1</v>
@@ -19397,7 +19379,7 @@
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B794" s="0" t="n">
         <v>1</v>
@@ -19415,7 +19397,7 @@
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B795" s="0" t="n">
         <v>1</v>
@@ -19433,7 +19415,7 @@
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B796" s="0" t="n">
         <v>1</v>
@@ -19451,7 +19433,7 @@
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B797" s="0" t="n">
         <v>1</v>
@@ -19469,7 +19451,7 @@
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B798" s="0" t="n">
         <v>1</v>
@@ -19487,7 +19469,7 @@
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B799" s="0" t="n">
         <v>1</v>
@@ -19505,7 +19487,7 @@
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B800" s="0" t="n">
         <v>1</v>
@@ -19523,7 +19505,7 @@
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B801" s="0" t="n">
         <v>1</v>
@@ -19541,7 +19523,7 @@
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B802" s="0" t="n">
         <v>1</v>
@@ -19559,7 +19541,7 @@
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B803" s="0" t="n">
         <v>1</v>
@@ -19577,7 +19559,7 @@
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B804" s="0" t="n">
         <v>1</v>
@@ -19595,7 +19577,7 @@
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B805" s="0" t="n">
         <v>1</v>
@@ -19613,7 +19595,7 @@
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B806" s="0" t="n">
         <v>1</v>
@@ -19631,7 +19613,7 @@
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B807" s="0" t="n">
         <v>1</v>
@@ -19649,7 +19631,7 @@
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B808" s="0" t="n">
         <v>1</v>
@@ -19667,7 +19649,7 @@
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B809" s="0" t="n">
         <v>1</v>
@@ -19685,7 +19667,7 @@
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B810" s="0" t="n">
         <v>1</v>
@@ -19703,7 +19685,7 @@
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B811" s="0" t="n">
         <v>1</v>
@@ -19721,7 +19703,7 @@
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B812" s="0" t="n">
         <v>1</v>
@@ -19739,7 +19721,7 @@
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B813" s="0" t="n">
         <v>1</v>
@@ -19757,7 +19739,7 @@
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B814" s="0" t="n">
         <v>1</v>
@@ -19775,7 +19757,7 @@
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B815" s="0" t="n">
         <v>1</v>
@@ -19793,7 +19775,7 @@
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B816" s="0" t="n">
         <v>1</v>
@@ -19811,7 +19793,7 @@
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B817" s="0" t="n">
         <v>1</v>
@@ -19829,7 +19811,7 @@
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B818" s="0" t="n">
         <v>1</v>
@@ -19847,7 +19829,7 @@
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B819" s="0" t="n">
         <v>1</v>
@@ -19865,7 +19847,7 @@
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B820" s="0" t="n">
         <v>1</v>
@@ -19883,7 +19865,7 @@
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B821" s="0" t="n">
         <v>1</v>
@@ -19901,7 +19883,7 @@
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B822" s="0" t="n">
         <v>1</v>
@@ -19919,7 +19901,7 @@
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B823" s="0" t="n">
         <v>1</v>
@@ -19937,7 +19919,7 @@
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B824" s="0" t="n">
         <v>1</v>
@@ -19955,7 +19937,7 @@
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B825" s="0" t="n">
         <v>1</v>
@@ -19973,7 +19955,7 @@
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B826" s="0" t="n">
         <v>1</v>
@@ -19991,7 +19973,7 @@
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B827" s="0" t="n">
         <v>1</v>
@@ -20009,7 +19991,7 @@
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B828" s="0" t="n">
         <v>1</v>
@@ -20027,7 +20009,7 @@
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B829" s="0" t="n">
         <v>1</v>
@@ -20045,7 +20027,7 @@
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B830" s="0" t="n">
         <v>1</v>
@@ -20063,7 +20045,7 @@
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B831" s="0" t="n">
         <v>1</v>
@@ -20081,7 +20063,7 @@
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B832" s="0" t="n">
         <v>1</v>
@@ -20099,7 +20081,7 @@
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B833" s="0" t="n">
         <v>1</v>
@@ -20117,7 +20099,7 @@
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B834" s="0" t="n">
         <v>1</v>
@@ -20135,15 +20117,15 @@
         <v>15</v>
       </c>
       <c r="K834" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L834" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="L834" s="3" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B835" s="0" t="n">
         <v>1</v>
@@ -20161,15 +20143,15 @@
         <v>15</v>
       </c>
       <c r="K835" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L835" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B836" s="0" t="n">
         <v>1</v>
@@ -20187,7 +20169,7 @@
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B837" s="0" t="n">
         <v>1</v>
@@ -20217,7 +20199,7 @@
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B838" s="0" t="n">
         <v>1</v>
@@ -20235,7 +20217,7 @@
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B839" s="0" t="n">
         <v>1</v>
@@ -20253,7 +20235,7 @@
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B840" s="0" t="n">
         <v>1</v>
@@ -20271,7 +20253,7 @@
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B841" s="0" t="n">
         <v>1</v>
@@ -20289,7 +20271,7 @@
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B842" s="0" t="n">
         <v>1</v>
@@ -20307,7 +20289,7 @@
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B843" s="0" t="n">
         <v>1</v>
@@ -20325,7 +20307,7 @@
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B844" s="0" t="n">
         <v>1</v>
@@ -20343,7 +20325,7 @@
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B845" s="0" t="n">
         <v>1</v>
@@ -20361,7 +20343,7 @@
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B846" s="0" t="n">
         <v>1</v>
@@ -20379,7 +20361,7 @@
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B847" s="0" t="n">
         <v>1</v>
@@ -20397,7 +20379,7 @@
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B848" s="0" t="n">
         <v>1</v>
@@ -20415,7 +20397,7 @@
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B849" s="0" t="n">
         <v>1</v>
@@ -20433,7 +20415,7 @@
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B850" s="0" t="n">
         <v>1</v>
@@ -20451,7 +20433,7 @@
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B851" s="0" t="n">
         <v>1</v>
@@ -20469,7 +20451,7 @@
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B852" s="0" t="n">
         <v>1</v>
@@ -20487,7 +20469,7 @@
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B853" s="0" t="n">
         <v>1</v>
@@ -20505,7 +20487,7 @@
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B854" s="0" t="n">
         <v>1</v>
@@ -20523,7 +20505,7 @@
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B855" s="0" t="n">
         <v>1</v>
@@ -20541,7 +20523,7 @@
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B856" s="0" t="n">
         <v>1</v>
@@ -20559,7 +20541,7 @@
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B857" s="0" t="n">
         <v>1</v>
@@ -20577,7 +20559,7 @@
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B858" s="0" t="n">
         <v>1</v>
@@ -20595,7 +20577,7 @@
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B859" s="0" t="n">
         <v>1</v>
@@ -20613,7 +20595,7 @@
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B860" s="0" t="n">
         <v>1</v>
@@ -20634,12 +20616,12 @@
         <v>1405830</v>
       </c>
       <c r="L860" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B861" s="0" t="n">
         <v>1</v>
@@ -20657,7 +20639,7 @@
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B862" s="0" t="n">
         <v>1</v>
@@ -20687,7 +20669,7 @@
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B863" s="0" t="n">
         <v>1</v>
@@ -20717,7 +20699,7 @@
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B864" s="0" t="n">
         <v>1</v>
@@ -20735,7 +20717,7 @@
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B865" s="0" t="n">
         <v>1</v>
@@ -20753,7 +20735,7 @@
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B866" s="0" t="n">
         <v>1</v>
@@ -20771,7 +20753,7 @@
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B867" s="0" t="n">
         <v>1</v>
@@ -20789,7 +20771,7 @@
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B868" s="0" t="n">
         <v>1</v>
@@ -20801,7 +20783,7 @@
         <v>0.005188</v>
       </c>
       <c r="E868" s="0" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G868" s="3" t="s">
         <v>63</v>
@@ -20810,10 +20792,10 @@
         <v>15</v>
       </c>
       <c r="K868" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L868" s="13" t="s">
         <v>1047</v>
-      </c>
-      <c r="L868" s="13" t="s">
-        <v>1048</v>
       </c>
       <c r="M868" s="0" t="n">
         <v>1</v>
@@ -20821,7 +20803,7 @@
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B869" s="0" t="n">
         <v>1</v>
@@ -20839,7 +20821,7 @@
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B870" s="0" t="n">
         <v>1</v>
@@ -20857,7 +20839,7 @@
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B871" s="0" t="n">
         <v>1</v>
@@ -20875,7 +20857,7 @@
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B872" s="0" t="n">
         <v>1</v>
@@ -20893,7 +20875,7 @@
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B873" s="0" t="n">
         <v>1</v>
@@ -20911,7 +20893,7 @@
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B874" s="0" t="n">
         <v>1</v>
@@ -20929,7 +20911,7 @@
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B875" s="0" t="n">
         <v>1</v>
@@ -20947,7 +20929,7 @@
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B876" s="0" t="n">
         <v>1</v>
@@ -20959,7 +20941,7 @@
         <v>0.002556</v>
       </c>
       <c r="E876" s="0" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G876" s="3" t="s">
         <v>63</v>
@@ -20968,10 +20950,10 @@
         <v>15</v>
       </c>
       <c r="K876" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L876" s="13" t="s">
         <v>1058</v>
-      </c>
-      <c r="L876" s="13" t="s">
-        <v>1059</v>
       </c>
       <c r="M876" s="0" t="n">
         <v>1</v>
@@ -20979,7 +20961,7 @@
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B877" s="0" t="n">
         <v>1</v>
@@ -20997,7 +20979,7 @@
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B878" s="0" t="n">
         <v>1</v>
@@ -21015,7 +20997,7 @@
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B879" s="0" t="n">
         <v>1</v>
@@ -21033,7 +21015,7 @@
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B880" s="0" t="n">
         <v>1</v>
@@ -21045,7 +21027,7 @@
         <v>0.002638</v>
       </c>
       <c r="E880" s="0" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G880" s="3" t="s">
         <v>63</v>
@@ -21054,10 +21036,10 @@
         <v>15</v>
       </c>
       <c r="K880" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L880" s="13" t="s">
         <v>1065</v>
-      </c>
-      <c r="L880" s="13" t="s">
-        <v>1066</v>
       </c>
       <c r="M880" s="0" t="n">
         <v>1</v>
@@ -21065,7 +21047,7 @@
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B881" s="0" t="n">
         <v>1</v>
@@ -21083,7 +21065,7 @@
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B882" s="0" t="n">
         <v>1</v>
@@ -21101,7 +21083,7 @@
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B883" s="0" t="n">
         <v>1</v>
@@ -21119,7 +21101,7 @@
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B884" s="0" t="n">
         <v>1</v>
@@ -21131,7 +21113,7 @@
         <v>0.003613</v>
       </c>
       <c r="E884" s="0" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G884" s="3" t="s">
         <v>63</v>
@@ -21140,10 +21122,10 @@
         <v>15</v>
       </c>
       <c r="K884" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L884" s="13" t="s">
         <v>1072</v>
-      </c>
-      <c r="L884" s="13" t="s">
-        <v>1073</v>
       </c>
       <c r="M884" s="0" t="n">
         <v>1</v>
@@ -21151,7 +21133,7 @@
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B885" s="0" t="n">
         <v>1</v>
@@ -21169,7 +21151,7 @@
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B886" s="0" t="n">
         <v>1</v>
@@ -21187,7 +21169,7 @@
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B887" s="0" t="n">
         <v>1</v>
@@ -21205,7 +21187,7 @@
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B888" s="0" t="n">
         <v>1</v>
@@ -21223,7 +21205,7 @@
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B889" s="0" t="n">
         <v>1</v>
@@ -21241,7 +21223,7 @@
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B890" s="0" t="n">
         <v>1</v>
@@ -21259,7 +21241,7 @@
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B891" s="0" t="n">
         <v>1</v>
@@ -21277,7 +21259,7 @@
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B892" s="0" t="n">
         <v>1</v>
@@ -21295,7 +21277,7 @@
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B893" s="0" t="n">
         <v>1</v>
@@ -21313,7 +21295,7 @@
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B894" s="0" t="n">
         <v>1</v>
@@ -21325,7 +21307,7 @@
         <v>0.001762</v>
       </c>
       <c r="E894" s="0" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G894" s="3" t="s">
         <v>63</v>
@@ -21334,10 +21316,10 @@
         <v>15</v>
       </c>
       <c r="K894" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L894" s="13" t="s">
         <v>1085</v>
-      </c>
-      <c r="L894" s="13" t="s">
-        <v>1086</v>
       </c>
       <c r="M894" s="0" t="n">
         <v>1</v>
@@ -21345,7 +21327,7 @@
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B895" s="0" t="n">
         <v>1</v>
@@ -21363,7 +21345,7 @@
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B896" s="0" t="n">
         <v>1</v>
@@ -21381,7 +21363,7 @@
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B897" s="0" t="n">
         <v>1</v>
@@ -21399,7 +21381,7 @@
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B898" s="0" t="n">
         <v>1</v>
@@ -21417,7 +21399,7 @@
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B899" s="0" t="n">
         <v>1</v>
@@ -21435,7 +21417,7 @@
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B900" s="0" t="n">
         <v>1</v>
@@ -21447,21 +21429,21 @@
         <v>0.001309</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J900" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K900" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L900" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="L900" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B901" s="0" t="n">
         <v>1</v>
@@ -21473,21 +21455,21 @@
         <v>0.003621</v>
       </c>
       <c r="G901" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J901" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K901" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L901" s="3" t="s">
         <v>1097</v>
-      </c>
-      <c r="L901" s="3" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B902" s="0" t="n">
         <v>1</v>
@@ -21499,21 +21481,21 @@
         <v>0.004082</v>
       </c>
       <c r="G902" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J902" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K902" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L902" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B903" s="0" t="n">
         <v>1</v>
@@ -21525,21 +21507,21 @@
         <v>0.00867</v>
       </c>
       <c r="G903" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J903" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K903" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L903" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B904" s="0" t="n">
         <v>1</v>
@@ -21551,21 +21533,21 @@
         <v>0.001199</v>
       </c>
       <c r="G904" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J904" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K904" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L904" s="3" t="s">
         <v>1097</v>
-      </c>
-      <c r="L904" s="3" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B905" s="0" t="n">
         <v>1</v>
@@ -21577,21 +21559,21 @@
         <v>0.002059</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J905" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K905" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L905" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B906" s="0" t="n">
         <v>1</v>
@@ -21603,21 +21585,21 @@
         <v>0.001687</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J906" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K906" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L906" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B907" s="0" t="n">
         <v>1</v>
@@ -21629,21 +21611,21 @@
         <v>0.002173</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J907" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K907" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L907" s="0" t="s">
         <v>1107</v>
-      </c>
-      <c r="L907" s="0" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B908" s="0" t="n">
         <v>1</v>
@@ -21655,21 +21637,21 @@
         <v>0.00307</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J908" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K908" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="L908" s="0" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B909" s="0" t="n">
         <v>1</v>
@@ -21690,22 +21672,22 @@
         <v>30</v>
       </c>
       <c r="I909" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J909" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K909" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L909" s="0"/>
       <c r="M909" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="9" t="s">
-        <v>1113</v>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="10" t="s">
+        <v>1112</v>
       </c>
       <c r="B910" s="0" t="n">
         <v>1</v>
@@ -21716,21 +21698,12 @@
       <c r="D910" s="2" t="n">
         <v>0.002855</v>
       </c>
-      <c r="G910" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J910" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="K910" s="0"/>
       <c r="L910" s="0"/>
-      <c r="N910" s="0" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="9" t="s">
-        <v>1116</v>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="10" t="s">
+        <v>1113</v>
       </c>
       <c r="B911" s="0" t="n">
         <v>1</v>
@@ -21741,21 +21714,12 @@
       <c r="D911" s="2" t="n">
         <v>0.006141</v>
       </c>
-      <c r="G911" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J911" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="K911" s="0"/>
       <c r="L911" s="0"/>
-      <c r="N911" s="0" t="s">
-        <v>1117</v>
-      </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B912" s="0" t="n">
         <v>1</v>
@@ -21773,7 +21737,7 @@
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B913" s="0" t="n">
         <v>1</v>
@@ -21791,7 +21755,7 @@
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B914" s="0" t="n">
         <v>1</v>
@@ -21809,7 +21773,7 @@
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B915" s="0" t="n">
         <v>1</v>
@@ -21827,7 +21791,7 @@
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="8" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B916" s="0" t="n">
         <v>1</v>
@@ -21839,21 +21803,21 @@
         <v>0.000317</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J916" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K916" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="L916" s="0" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="8" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B917" s="0" t="n">
         <v>1</v>
@@ -21865,21 +21829,21 @@
         <v>0.000539</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J917" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K917" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="L917" s="0" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="8" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B918" s="0" t="n">
         <v>1</v>
@@ -21891,21 +21855,21 @@
         <v>0.000609</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J918" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K918" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="L918" s="0" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B919" s="0" t="n">
         <v>1</v>
@@ -21917,21 +21881,21 @@
         <v>0.00149</v>
       </c>
       <c r="G919" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J919" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K919" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="L919" s="0" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="B920" s="0" t="n">
         <v>1</v>
@@ -21949,7 +21913,7 @@
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B921" s="0" t="n">
         <v>1</v>
@@ -21967,7 +21931,7 @@
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B922" s="0" t="n">
         <v>1</v>
@@ -21985,7 +21949,7 @@
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B923" s="0" t="n">
         <v>1</v>
@@ -22003,7 +21967,7 @@
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B924" s="0" t="n">
         <v>1</v>
@@ -22021,7 +21985,7 @@
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B925" s="0" t="n">
         <v>1</v>
@@ -22039,7 +22003,7 @@
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="8" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B926" s="0" t="n">
         <v>1</v>
@@ -22051,21 +22015,21 @@
         <v>0.000528</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="J926" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K926" s="3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="L926" s="0" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="8" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B927" s="0" t="n">
         <v>1</v>
@@ -22077,21 +22041,21 @@
         <v>0.000699</v>
       </c>
       <c r="G927" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J927" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K927" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L927" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="L927" s="0" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B928" s="0" t="n">
         <v>1</v>
@@ -22109,7 +22073,7 @@
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B929" s="0" t="n">
         <v>1</v>
@@ -22127,7 +22091,7 @@
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B930" s="0" t="n">
         <v>1</v>
@@ -22145,7 +22109,7 @@
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B931" s="0" t="n">
         <v>1</v>
@@ -22163,7 +22127,7 @@
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B932" s="0" t="n">
         <v>1</v>
@@ -22181,7 +22145,7 @@
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="B933" s="0" t="n">
         <v>1</v>
@@ -22199,7 +22163,7 @@
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B934" s="0" t="n">
         <v>1</v>
@@ -22217,7 +22181,7 @@
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B935" s="0" t="n">
         <v>1</v>
@@ -22235,7 +22199,7 @@
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B936" s="0" t="n">
         <v>1</v>
@@ -22253,7 +22217,7 @@
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="B937" s="0" t="n">
         <v>1</v>
@@ -22271,7 +22235,7 @@
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B938" s="0" t="n">
         <v>1</v>
@@ -22289,7 +22253,7 @@
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="B939" s="0" t="n">
         <v>1</v>
@@ -22307,7 +22271,7 @@
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B940" s="0" t="n">
         <v>1</v>
@@ -22325,7 +22289,7 @@
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="B941" s="0" t="n">
         <v>1</v>
@@ -22343,7 +22307,7 @@
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B942" s="0" t="n">
         <v>1</v>
@@ -22361,7 +22325,7 @@
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B943" s="0" t="n">
         <v>1</v>
@@ -22379,7 +22343,7 @@
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B944" s="0" t="n">
         <v>1</v>
@@ -22397,7 +22361,7 @@
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B945" s="0" t="n">
         <v>1</v>
@@ -22415,7 +22379,7 @@
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B946" s="0" t="n">
         <v>1</v>
@@ -22433,7 +22397,7 @@
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B947" s="0" t="n">
         <v>1</v>
@@ -22451,7 +22415,7 @@
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B948" s="0" t="n">
         <v>1</v>
@@ -22469,7 +22433,7 @@
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B949" s="0" t="n">
         <v>1</v>
@@ -22487,7 +22451,7 @@
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B950" s="0" t="n">
         <v>1</v>
@@ -22505,7 +22469,7 @@
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B951" s="0" t="n">
         <v>1</v>
@@ -22523,7 +22487,7 @@
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B952" s="0" t="n">
         <v>1</v>
@@ -22541,7 +22505,7 @@
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B953" s="0" t="n">
         <v>1</v>
@@ -22553,21 +22517,21 @@
         <v>0.005528</v>
       </c>
       <c r="G953" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J953" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K953" s="3" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="L953" s="3" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="8" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B954" s="0" t="n">
         <v>1</v>
@@ -22579,21 +22543,21 @@
         <v>0.001747</v>
       </c>
       <c r="G954" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J954" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K954" s="3" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="L954" s="3" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B955" s="0" t="n">
         <v>1</v>
@@ -22610,7 +22574,7 @@
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B956" s="0" t="n">
         <v>1</v>
@@ -22627,7 +22591,7 @@
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="8" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B957" s="0" t="n">
         <v>1</v>
@@ -22645,12 +22609,12 @@
         <v>20</v>
       </c>
       <c r="K957" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="8" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B958" s="0" t="n">
         <v>1</v>
@@ -22668,12 +22632,12 @@
         <v>20</v>
       </c>
       <c r="K958" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B959" s="0" t="n">
         <v>1</v>
@@ -22687,7 +22651,7 @@
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B960" s="0" t="n">
         <v>1</v>
@@ -22701,7 +22665,7 @@
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B961" s="0" t="n">
         <v>1</v>
@@ -22715,7 +22679,7 @@
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B962" s="0" t="n">
         <v>1</v>
@@ -22729,7 +22693,7 @@
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B963" s="0" t="n">
         <v>1</v>
@@ -22743,7 +22707,7 @@
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B964" s="0" t="n">
         <v>1</v>
@@ -22757,7 +22721,7 @@
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B965" s="0" t="n">
         <v>1</v>
@@ -22771,7 +22735,7 @@
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B966" s="0" t="n">
         <v>1</v>
@@ -22785,7 +22749,7 @@
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B967" s="0" t="n">
         <v>1</v>
@@ -22799,7 +22763,7 @@
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B968" s="0" t="n">
         <v>1</v>
@@ -22813,7 +22777,7 @@
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B969" s="0" t="n">
         <v>1</v>
@@ -22827,7 +22791,7 @@
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B970" s="0" t="n">
         <v>1</v>
@@ -22841,7 +22805,7 @@
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B971" s="0" t="n">
         <v>1</v>
@@ -22855,7 +22819,7 @@
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B972" s="0" t="n">
         <v>1</v>
@@ -22869,7 +22833,7 @@
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B973" s="0" t="n">
         <v>1</v>
@@ -22883,7 +22847,7 @@
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B974" s="0" t="n">
         <v>1</v>
@@ -22897,7 +22861,7 @@
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B975" s="0" t="n">
         <v>1</v>
@@ -22911,7 +22875,7 @@
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B976" s="0" t="n">
         <v>1</v>
@@ -22925,7 +22889,7 @@
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B977" s="0" t="n">
         <v>1</v>
@@ -22939,7 +22903,7 @@
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B978" s="0" t="n">
         <v>1</v>
@@ -22953,7 +22917,7 @@
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="B979" s="0" t="n">
         <v>1</v>
@@ -22967,7 +22931,7 @@
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B980" s="0" t="n">
         <v>1</v>
@@ -22981,7 +22945,7 @@
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B981" s="0" t="n">
         <v>1</v>
@@ -22995,7 +22959,7 @@
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="B982" s="0" t="n">
         <v>1</v>
@@ -23009,7 +22973,7 @@
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B983" s="0" t="n">
         <v>1</v>
@@ -23023,7 +22987,7 @@
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B984" s="0" t="n">
         <v>1</v>
@@ -23037,7 +23001,7 @@
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B985" s="0" t="n">
         <v>1</v>
@@ -23051,7 +23015,7 @@
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B986" s="0" t="n">
         <v>1</v>
@@ -23065,7 +23029,7 @@
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B987" s="0" t="n">
         <v>1</v>
@@ -23079,7 +23043,7 @@
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B988" s="0" t="n">
         <v>1</v>
@@ -23093,7 +23057,7 @@
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B989" s="0" t="n">
         <v>1</v>
@@ -23107,7 +23071,7 @@
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B990" s="0" t="n">
         <v>1</v>
@@ -23121,7 +23085,7 @@
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B991" s="0" t="n">
         <v>1</v>
@@ -23135,7 +23099,7 @@
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B992" s="0" t="n">
         <v>1</v>
@@ -23149,7 +23113,7 @@
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B993" s="0" t="n">
         <v>1</v>
@@ -23163,7 +23127,7 @@
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B994" s="0" t="n">
         <v>1</v>
@@ -23177,7 +23141,7 @@
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B995" s="0" t="n">
         <v>1</v>
@@ -23191,7 +23155,7 @@
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B996" s="0" t="n">
         <v>1</v>
@@ -23205,7 +23169,7 @@
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B997" s="0" t="n">
         <v>1</v>
@@ -23219,7 +23183,7 @@
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B998" s="0" t="n">
         <v>1</v>
@@ -23233,7 +23197,7 @@
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="B999" s="0" t="n">
         <v>1</v>
@@ -23247,7 +23211,7 @@
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B1000" s="0" t="n">
         <v>1</v>
@@ -23261,7 +23225,7 @@
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B1001" s="0" t="n">
         <v>1</v>
@@ -23275,7 +23239,7 @@
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B1002" s="0" t="n">
         <v>1</v>
@@ -23289,7 +23253,7 @@
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="B1003" s="0" t="n">
         <v>1</v>
@@ -23303,7 +23267,7 @@
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B1004" s="0" t="n">
         <v>1</v>
@@ -23317,7 +23281,7 @@
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B1005" s="0" t="n">
         <v>1</v>
@@ -23331,7 +23295,7 @@
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B1006" s="0" t="n">
         <v>1</v>
@@ -23345,7 +23309,7 @@
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B1007" s="0" t="n">
         <v>1</v>
@@ -23359,7 +23323,7 @@
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B1008" s="0" t="n">
         <v>1</v>
@@ -23373,7 +23337,7 @@
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B1009" s="0" t="n">
         <v>1</v>
@@ -23387,7 +23351,7 @@
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B1010" s="0" t="n">
         <v>1</v>
@@ -23401,7 +23365,7 @@
     </row>
     <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="B1011" s="0" t="n">
         <v>1</v>
@@ -23415,7 +23379,7 @@
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B1012" s="0" t="n">
         <v>1</v>

--- a/Basiswerte.xlsx
+++ b/Basiswerte.xlsx
@@ -517,7 +517,7 @@
     <t xml:space="preserve">ATX Index</t>
   </si>
   <si>
-    <t xml:space="preserve">ATX</t>
+    <t xml:space="preserve">^ATX</t>
   </si>
   <si>
     <t xml:space="preserve">Bar Cap US Government 1-10 Year Inflation-Linked Bond Index</t>
@@ -3746,6 +3746,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3969,24 +3970,24 @@
   </sheetPr>
   <dimension ref="A1:S1012"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A910" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A950" activeCellId="0" sqref="A950"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.6683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="10.530612244898"/>
     <col collapsed="false" hidden="true" max="9" min="8" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="3" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="3" width="10.530612244898"/>
     <col collapsed="false" hidden="true" max="13" min="13" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,6 +5614,8 @@
       <c r="D63" s="2" t="n">
         <v>0.00377766666666667</v>
       </c>
+      <c r="G63" s="0"/>
+      <c r="J63" s="0"/>
       <c r="K63" s="0"/>
       <c r="L63" s="0"/>
     </row>
@@ -5629,6 +5632,8 @@
       <c r="D64" s="2" t="n">
         <v>0.00424566666666667</v>
       </c>
+      <c r="G64" s="0"/>
+      <c r="J64" s="0"/>
       <c r="K64" s="0"/>
       <c r="L64" s="0"/>
     </row>
@@ -5645,6 +5650,8 @@
       <c r="D65" s="2" t="n">
         <v>0.00324433333333333</v>
       </c>
+      <c r="G65" s="0"/>
+      <c r="J65" s="0"/>
       <c r="K65" s="0"/>
       <c r="L65" s="0"/>
     </row>
@@ -5661,6 +5668,8 @@
       <c r="D66" s="2" t="n">
         <v>0.00357533333333333</v>
       </c>
+      <c r="G66" s="0"/>
+      <c r="J66" s="0"/>
       <c r="K66" s="0"/>
       <c r="L66" s="0"/>
     </row>
@@ -5677,6 +5686,8 @@
       <c r="D67" s="2" t="n">
         <v>0.004047</v>
       </c>
+      <c r="G67" s="0"/>
+      <c r="J67" s="0"/>
       <c r="K67" s="0"/>
       <c r="L67" s="0"/>
     </row>
@@ -5693,6 +5704,8 @@
       <c r="D68" s="2" t="n">
         <v>0.00329166666666667</v>
       </c>
+      <c r="G68" s="0"/>
+      <c r="J68" s="0"/>
       <c r="K68" s="0"/>
       <c r="L68" s="0"/>
     </row>
@@ -5709,6 +5722,8 @@
       <c r="D69" s="2" t="n">
         <v>0.003842</v>
       </c>
+      <c r="G69" s="0"/>
+      <c r="J69" s="0"/>
       <c r="K69" s="0"/>
       <c r="L69" s="0"/>
     </row>
@@ -5725,6 +5740,8 @@
       <c r="D70" s="2" t="n">
         <v>0.001622</v>
       </c>
+      <c r="G70" s="0"/>
+      <c r="J70" s="0"/>
       <c r="K70" s="0"/>
       <c r="L70" s="0"/>
     </row>
@@ -6527,6 +6544,8 @@
       <c r="D109" s="2" t="n">
         <v>0.0074435</v>
       </c>
+      <c r="G109" s="0"/>
+      <c r="J109" s="0"/>
       <c r="K109" s="0"/>
       <c r="L109" s="0"/>
     </row>
@@ -6759,6 +6778,8 @@
       <c r="D121" s="2" t="n">
         <v>0.0019735</v>
       </c>
+      <c r="G121" s="0"/>
+      <c r="J121" s="0"/>
       <c r="K121" s="0"/>
       <c r="L121" s="0"/>
     </row>
@@ -7099,6 +7120,8 @@
       <c r="D140" s="2" t="n">
         <v>0.009588</v>
       </c>
+      <c r="G140" s="0"/>
+      <c r="J140" s="0"/>
       <c r="K140" s="0"/>
       <c r="L140" s="0"/>
       <c r="M140" s="0" t="n">
@@ -8216,6 +8239,8 @@
       <c r="D193" s="2" t="n">
         <v>0.004226</v>
       </c>
+      <c r="G193" s="0"/>
+      <c r="J193" s="0"/>
       <c r="K193" s="0"/>
       <c r="L193" s="0"/>
     </row>
@@ -21698,6 +21723,8 @@
       <c r="D910" s="2" t="n">
         <v>0.002855</v>
       </c>
+      <c r="G910" s="0"/>
+      <c r="J910" s="0"/>
       <c r="K910" s="0"/>
       <c r="L910" s="0"/>
     </row>
@@ -21714,6 +21741,8 @@
       <c r="D911" s="2" t="n">
         <v>0.006141</v>
       </c>
+      <c r="G911" s="0"/>
+      <c r="J911" s="0"/>
       <c r="K911" s="0"/>
       <c r="L911" s="0"/>
     </row>
@@ -23392,30 +23421,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:D1,C1013:D1048576,C2:C1012">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D:D">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
